--- a/TestletApplication/UnitTestCases.xlsx
+++ b/TestletApplication/UnitTestCases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thiyagarajan\Documents\Visual Studio 2013\Projects\TestletApplication\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thiyagarajan\Documents\GitHub\Interview\TestletApplication\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -70,18 +69,6 @@
   </si>
   <si>
     <t>Next 8 items mix of testlets</t>
-  </si>
-  <si>
-    <t>Null check for item description</t>
-  </si>
-  <si>
-    <t>Empty check for item description</t>
-  </si>
-  <si>
-    <t>Null check for answer description</t>
-  </si>
-  <si>
-    <t>Empty check for answer description</t>
   </si>
 </sst>
 </file>
@@ -399,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A13" sqref="A13:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,38 +512,6 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
